--- a/data/trans_camb/P31_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>22,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>22,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>20,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-6,91</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,88</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 28,08</t>
+          <t>0,0; 64,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 31,08</t>
+          <t>-0,33; 58,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,94</t>
+          <t>-2,48; 60,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,83</t>
+          <t>-3,35; 11,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 15,66</t>
+          <t>-4,26; 11,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 17,91</t>
+          <t>-21,31; 4,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 41,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 38,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 34,36</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>-7,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 44,14</t>
+          <t>0,32; 209,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 48,1</t>
+          <t>-0,57; 150,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 5,21</t>
+          <t>-2,94; 186,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,15</t>
+          <t>-3,43; 13,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 19,17</t>
+          <t>-4,41; 12,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 22,56</t>
+          <t>-22,88; 4,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 77,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 62,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 62,03</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-19,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-7,47</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-13,7</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 1,72</t>
+          <t>-13,28; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 2,23</t>
+          <t>-14,11; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 7,91</t>
+          <t>-28,68; -8,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 4,53</t>
+          <t>-5,78; 6,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,63</t>
+          <t>-9,81; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,6</t>
+          <t>-14,98; 1,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 3,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 1,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; -7,68</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>-22,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-8,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-15,65%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 2,22</t>
+          <t>-15,15; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 2,36</t>
+          <t>-16,03; 6,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,09</t>
+          <t>-33,0; -9,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,17</t>
+          <t>-6,24; 7,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 4,27</t>
+          <t>-10,46; 4,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 1,87</t>
+          <t>-16,37; 1,26</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 3,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-10,89; 1,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,78; -8,83</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 18,22</t>
+          <t>-2,05; 24,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 16,17</t>
+          <t>-8,68; 16,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 12,24</t>
+          <t>-9,29; 16,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 8,12</t>
+          <t>-8,51; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 12,88</t>
+          <t>-14,06; 3,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 8,82</t>
+          <t>-14,63; 2,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 12,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 6,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 6,29</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>-6,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,35%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 30,84</t>
+          <t>-2,28; 42,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 26,95</t>
+          <t>-11,73; 28,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 15,9</t>
+          <t>-12,66; 28,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 10,71</t>
+          <t>-9,84; 10,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 18,26</t>
+          <t>-16,13; 4,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 12,59</t>
+          <t>-16,65; 3,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 18,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 8,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 8,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 14,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 12,35</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 4,85</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 5,37</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 1,99</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; -0,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 7,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 5,03</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; -0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,21%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-6,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 21,96</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 17,77</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 6,84</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 6,29</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 2,36</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; -0,44</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 10,14</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 6,37</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
